--- a/Data_preparation/datasets/final_data/STONECO_LTD_A.xlsx
+++ b/Data_preparation/datasets/final_data/STONECO_LTD_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,93 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>NTAP</t>
   </si>
 </sst>
 </file>
@@ -739,22 +652,22 @@
         <v>42735</v>
       </c>
       <c r="D2">
-        <v>45.97999954223633</v>
+        <v>32</v>
       </c>
       <c r="E2">
-        <v>53.06000137329102</v>
+        <v>28.69000053405762</v>
       </c>
       <c r="F2">
-        <v>53.20000076293945</v>
+        <v>32.5</v>
       </c>
       <c r="G2">
-        <v>45.61000061035156</v>
+        <v>27.59000015258789</v>
       </c>
       <c r="H2">
-        <v>50476952</v>
+        <v>250599325</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>-253944410.3194103</v>
@@ -783,22 +696,22 @@
         <v>43008</v>
       </c>
       <c r="D3">
-        <v>34.39338093652559</v>
+        <v>32</v>
       </c>
       <c r="E3">
-        <v>33.61638259887695</v>
+        <v>28.69000053405762</v>
       </c>
       <c r="F3">
-        <v>35.08107037354011</v>
+        <v>32.5</v>
       </c>
       <c r="G3">
-        <v>32.32138309818511</v>
+        <v>27.59000015258789</v>
       </c>
       <c r="H3">
-        <v>457000000</v>
+        <v>250599325</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3">
         <v>187059000</v>
@@ -842,22 +755,22 @@
         <v>43100</v>
       </c>
       <c r="D4">
-        <v>8.751999855041504</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>9.208000183105469</v>
+        <v>28.69000053405762</v>
       </c>
       <c r="F4">
-        <v>9.28600025177002</v>
+        <v>32.5</v>
       </c>
       <c r="G4">
-        <v>8.696000099182129</v>
+        <v>27.59000015258789</v>
       </c>
       <c r="H4">
-        <v>766266033</v>
+        <v>250599325</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>-249726064.6330414</v>
@@ -931,22 +844,22 @@
         <v>43190</v>
       </c>
       <c r="D5">
-        <v>35.97240561616163</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>31.91368293762207</v>
+        <v>28.69000053405762</v>
       </c>
       <c r="F5">
-        <v>36.75260893317965</v>
+        <v>32.5</v>
       </c>
       <c r="G5">
-        <v>31.53188151649943</v>
+        <v>27.59000015258789</v>
       </c>
       <c r="H5">
-        <v>5186523104</v>
+        <v>250599325</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P5">
         <v>288028000</v>
@@ -1008,22 +921,22 @@
         <v>43281</v>
       </c>
       <c r="D6">
-        <v>22.36372947692871</v>
+        <v>32</v>
       </c>
       <c r="E6">
-        <v>22.87315368652344</v>
+        <v>28.69000053405762</v>
       </c>
       <c r="F6">
-        <v>25.01273536682129</v>
+        <v>32.5</v>
       </c>
       <c r="G6">
-        <v>22.00713157653809</v>
+        <v>27.59000015258789</v>
       </c>
       <c r="H6">
-        <v>60308678</v>
+        <v>250599325</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P6">
         <v>347700000</v>
@@ -1085,22 +998,22 @@
         <v>43373</v>
       </c>
       <c r="D7">
-        <v>40.01662959399956</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>40.09360122680664</v>
+        <v>28.69000053405762</v>
       </c>
       <c r="F7">
-        <v>42.52247987457982</v>
+        <v>32.5</v>
       </c>
       <c r="G7">
-        <v>36.22792094161961</v>
+        <v>27.59000015258789</v>
       </c>
       <c r="H7">
-        <v>4757218036</v>
+        <v>250599325</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>-77200750</v>
@@ -1177,22 +1090,22 @@
         <v>43465</v>
       </c>
       <c r="D8">
-        <v>42.82212632249508</v>
+        <v>18.29000091552734</v>
       </c>
       <c r="E8">
-        <v>46.75239944458008</v>
+        <v>22.1200008392334</v>
       </c>
       <c r="F8">
-        <v>46.95784665825049</v>
+        <v>23.40999984741211</v>
       </c>
       <c r="G8">
-        <v>41.83955640128374</v>
+        <v>17.98999977111816</v>
       </c>
       <c r="H8">
-        <v>450687724</v>
+        <v>250599325</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>5115437044</v>
@@ -1287,22 +1200,22 @@
         <v>43555</v>
       </c>
       <c r="D9">
-        <v>83.62000274658203</v>
+        <v>41</v>
       </c>
       <c r="E9">
-        <v>104.0299987792969</v>
+        <v>28.79000091552734</v>
       </c>
       <c r="F9">
-        <v>104.9800033569336</v>
+        <v>45.61999893188477</v>
       </c>
       <c r="G9">
-        <v>82.03099822998047</v>
+        <v>24.51000022888184</v>
       </c>
       <c r="H9">
-        <v>168459019</v>
+        <v>250599325</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>11404317618</v>
@@ -1409,22 +1322,22 @@
         <v>43646</v>
       </c>
       <c r="D10">
-        <v>14.72999954223633</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>16.79999923706055</v>
+        <v>35.0099983215332</v>
       </c>
       <c r="F10">
-        <v>18.36000061035156</v>
+        <v>37.56999969482422</v>
       </c>
       <c r="G10">
-        <v>13.96000003814697</v>
+        <v>28.04000091552734</v>
       </c>
       <c r="H10">
-        <v>1435682333</v>
+        <v>250599325</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>8198984370</v>
@@ -1537,22 +1450,22 @@
         <v>43738</v>
       </c>
       <c r="D11">
-        <v>42.51583583355016</v>
+        <v>34.72999954223633</v>
       </c>
       <c r="E11">
-        <v>42.25590896606445</v>
+        <v>36.79000091552734</v>
       </c>
       <c r="F11">
-        <v>43.8557984628152</v>
+        <v>36.88999938964844</v>
       </c>
       <c r="G11">
-        <v>39.92553545962458</v>
+        <v>30.93000030517578</v>
       </c>
       <c r="H11">
-        <v>539679667</v>
+        <v>250599325</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>9646818556</v>
@@ -1665,22 +1578,22 @@
         <v>43830</v>
       </c>
       <c r="D12">
-        <v>74.30999755859375</v>
+        <v>40.7400016784668</v>
       </c>
       <c r="E12">
-        <v>78.51000213623047</v>
+        <v>43.43999862670898</v>
       </c>
       <c r="F12">
-        <v>80.26000213623047</v>
+        <v>45.47999954223633</v>
       </c>
       <c r="G12">
-        <v>70.55000305175781</v>
+        <v>39.90999984741211</v>
       </c>
       <c r="H12">
-        <v>201104117</v>
+        <v>250599325</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>11064163088</v>
@@ -1793,22 +1706,22 @@
         <v>43921</v>
       </c>
       <c r="D13">
-        <v>26.5</v>
+        <v>20.90999984741211</v>
       </c>
       <c r="E13">
-        <v>30.27000045776367</v>
+        <v>26.3799991607666</v>
       </c>
       <c r="F13">
-        <v>32</v>
+        <v>28.53000068664551</v>
       </c>
       <c r="G13">
-        <v>21.67000007629395</v>
+        <v>17.71999931335449</v>
       </c>
       <c r="H13">
-        <v>2085418676</v>
+        <v>250599325</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>6038276020</v>
@@ -1921,22 +1834,22 @@
         <v>44012</v>
       </c>
       <c r="D14">
-        <v>256.4700012207031</v>
+        <v>38.93999862670898</v>
       </c>
       <c r="E14">
-        <v>280.75</v>
+        <v>47.70999908447266</v>
       </c>
       <c r="F14">
-        <v>287.8299865722656</v>
+        <v>47.86999893188477</v>
       </c>
       <c r="G14">
-        <v>250.9499969482422</v>
+        <v>36.70999908447266</v>
       </c>
       <c r="H14">
-        <v>50845151</v>
+        <v>250599325</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>10750738563</v>
@@ -2049,22 +1962,22 @@
         <v>44104</v>
       </c>
       <c r="D15">
-        <v>142.1999969482422</v>
+        <v>53.79999923706055</v>
       </c>
       <c r="E15">
-        <v>135.75</v>
+        <v>52.54000091552734</v>
       </c>
       <c r="F15">
-        <v>158.7359924316406</v>
+        <v>60.7599983215332</v>
       </c>
       <c r="G15">
-        <v>133.8099975585938</v>
+        <v>50.40000152587891</v>
       </c>
       <c r="H15">
-        <v>158300823</v>
+        <v>250599325</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>14691533449</v>
@@ -2177,22 +2090,22 @@
         <v>44196</v>
       </c>
       <c r="D16">
-        <v>29.91399955749512</v>
+        <v>85</v>
       </c>
       <c r="E16">
-        <v>28.95000076293945</v>
+        <v>71.90000152587891</v>
       </c>
       <c r="F16">
-        <v>31.0620002746582</v>
+        <v>86.36000061035156</v>
       </c>
       <c r="G16">
-        <v>27.46199989318848</v>
+        <v>68.45999908447266</v>
       </c>
       <c r="H16">
-        <v>766266033</v>
+        <v>250599325</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>23310899735</v>
@@ -2305,22 +2218,22 @@
         <v>44286</v>
       </c>
       <c r="D17">
-        <v>529.9299926757812</v>
+        <v>63.18000030517578</v>
       </c>
       <c r="E17">
-        <v>513.469970703125</v>
+        <v>64.63999938964844</v>
       </c>
       <c r="F17">
-        <v>563.5599975585938</v>
+        <v>70.56999969482422</v>
       </c>
       <c r="G17">
-        <v>499</v>
+        <v>61.70999908447266</v>
       </c>
       <c r="H17">
-        <v>424926346</v>
+        <v>250599325</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>18900412154</v>
@@ -2433,22 +2346,22 @@
         <v>44377</v>
       </c>
       <c r="D18">
-        <v>46.47724219552952</v>
+        <v>67.27999877929688</v>
       </c>
       <c r="E18">
-        <v>48.50979995727539</v>
+        <v>58.84000015258789</v>
       </c>
       <c r="F18">
-        <v>48.75511095753174</v>
+        <v>70.73999786376953</v>
       </c>
       <c r="G18">
-        <v>45.85521015250949</v>
+        <v>53.18999862670898</v>
       </c>
       <c r="H18">
-        <v>3953196953</v>
+        <v>250599325</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>20829650511</v>
@@ -2561,22 +2474,22 @@
         <v>44469</v>
       </c>
       <c r="D19">
-        <v>138.916410444292</v>
+        <v>34.95000076293945</v>
       </c>
       <c r="E19">
-        <v>146.6503143310547</v>
+        <v>33.86000061035156</v>
       </c>
       <c r="F19">
-        <v>149.9494520691154</v>
+        <v>40.04000091552734</v>
       </c>
       <c r="G19">
-        <v>135.3627448332334</v>
+        <v>30.70999908447266</v>
       </c>
       <c r="H19">
-        <v>14840390000</v>
+        <v>250599325</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>10784453709</v>
@@ -2793,22 +2706,22 @@
         <v>44651</v>
       </c>
       <c r="D21">
-        <v>151.2200012207031</v>
+        <v>11.81999969482422</v>
       </c>
       <c r="E21">
-        <v>119.3099975585938</v>
+        <v>9.420000076293944</v>
       </c>
       <c r="F21">
-        <v>161.6100006103516</v>
+        <v>12.82999992370606</v>
       </c>
       <c r="G21">
-        <v>118.879997253418</v>
+        <v>9.060000419616699</v>
       </c>
       <c r="H21">
-        <v>168459019</v>
+        <v>250599325</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>3656615602</v>
@@ -2909,22 +2822,22 @@
         <v>44742</v>
       </c>
       <c r="D22">
-        <v>3.200000047683716</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="E22">
-        <v>3.930000066757202</v>
+        <v>9.579999923706056</v>
       </c>
       <c r="F22">
-        <v>4.539999961853027</v>
+        <v>9.909999847412109</v>
       </c>
       <c r="G22">
-        <v>3.109999895095825</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="H22">
-        <v>448228270</v>
+        <v>250599325</v>
       </c>
       <c r="I22" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>2406490610</v>
@@ -3025,22 +2938,22 @@
         <v>44834</v>
       </c>
       <c r="D23">
-        <v>254.5</v>
+        <v>9.810000419616699</v>
       </c>
       <c r="E23">
-        <v>227.5399932861328</v>
+        <v>10.5</v>
       </c>
       <c r="F23">
-        <v>257.5</v>
+        <v>12.25</v>
       </c>
       <c r="G23">
-        <v>198.5899963378907</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="H23">
-        <v>3325150886</v>
+        <v>250599325</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>2978422793</v>
@@ -3141,22 +3054,22 @@
         <v>44926</v>
       </c>
       <c r="D24">
-        <v>26.71999931335449</v>
+        <v>9.470000267028809</v>
       </c>
       <c r="E24">
-        <v>28.72999954223633</v>
+        <v>11.15999984741211</v>
       </c>
       <c r="F24">
-        <v>29.72999954223633</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="G24">
-        <v>26.64999961853028</v>
+        <v>8.420000076293945</v>
       </c>
       <c r="H24">
-        <v>178998669</v>
+        <v>250599325</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>2953271149</v>
@@ -3257,22 +3170,22 @@
         <v>45016</v>
       </c>
       <c r="D25">
-        <v>261.1884929516806</v>
+        <v>9.5</v>
       </c>
       <c r="E25">
-        <v>225.4617156982422</v>
+        <v>12.31999969482422</v>
       </c>
       <c r="F25">
-        <v>262.5264343168398</v>
+        <v>12.52999973297119</v>
       </c>
       <c r="G25">
-        <v>223.9783523558658</v>
+        <v>8.729999542236328</v>
       </c>
       <c r="H25">
-        <v>60498713</v>
+        <v>250599325</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>2982583950</v>
@@ -3373,22 +3286,22 @@
         <v>45107</v>
       </c>
       <c r="D26">
-        <v>18.42000007629395</v>
+        <v>12.77000045776367</v>
       </c>
       <c r="E26">
-        <v>19.04000091552734</v>
+        <v>14.48999977111816</v>
       </c>
       <c r="F26">
-        <v>19.38999938964844</v>
+        <v>14.6899995803833</v>
       </c>
       <c r="G26">
-        <v>17.57999992370605</v>
+        <v>11.07999992370606</v>
       </c>
       <c r="H26">
-        <v>260676335</v>
+        <v>250599325</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>3990135233</v>
@@ -3489,22 +3402,22 @@
         <v>45199</v>
       </c>
       <c r="D27">
-        <v>62.6169871617784</v>
+        <v>10.61999988555908</v>
       </c>
       <c r="E27">
-        <v>64.67326354980469</v>
+        <v>9.909999847412109</v>
       </c>
       <c r="F27">
-        <v>66.63478202323152</v>
+        <v>10.82999992370606</v>
       </c>
       <c r="G27">
-        <v>60.75970456328059</v>
+        <v>9.340000152587891</v>
       </c>
       <c r="H27">
-        <v>212968277</v>
+        <v>250599325</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>3341816557</v>
@@ -3617,22 +3530,22 @@
         <v>45291</v>
       </c>
       <c r="D28">
-        <v>1152.400024414062</v>
+        <v>17.76000022888184</v>
       </c>
       <c r="E28">
-        <v>1198.829956054688</v>
+        <v>17.19000053405762</v>
       </c>
       <c r="F28">
-        <v>1307.140014648438</v>
+        <v>18.8700008392334</v>
       </c>
       <c r="G28">
-        <v>1113.18994140625</v>
+        <v>16.14999961853027</v>
       </c>
       <c r="H28">
-        <v>24003656</v>
+        <v>250599325</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>5665882786</v>
@@ -3745,22 +3658,22 @@
         <v>45382</v>
       </c>
       <c r="D29">
-        <v>104.6600036621094</v>
+        <v>16.68000030517578</v>
       </c>
       <c r="E29">
-        <v>92.98000335693359</v>
+        <v>15.60000038146973</v>
       </c>
       <c r="F29">
-        <v>105.0100021362305</v>
+        <v>17.93000030517578</v>
       </c>
       <c r="G29">
-        <v>90.66999816894533</v>
+        <v>15.11999988555908</v>
       </c>
       <c r="H29">
-        <v>168459019</v>
+        <v>250599325</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>5219651307</v>
@@ -3873,22 +3786,22 @@
         <v>45473</v>
       </c>
       <c r="D30">
-        <v>53.97000122070312</v>
+        <v>12.02000045776367</v>
       </c>
       <c r="E30">
-        <v>52.63999938964844</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="F30">
-        <v>65.87999725341797</v>
+        <v>13.78999996185303</v>
       </c>
       <c r="G30">
-        <v>50.29000091552734</v>
+        <v>11.61999988555908</v>
       </c>
       <c r="H30">
-        <v>42689006</v>
+        <v>250599325</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>3704143827</v>
@@ -4001,22 +3914,22 @@
         <v>45565</v>
       </c>
       <c r="D31">
-        <v>36.50313191135645</v>
+        <v>11.1899995803833</v>
       </c>
       <c r="E31">
-        <v>39.63111877441406</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="F31">
-        <v>41.15769383693995</v>
+        <v>11.80000019073486</v>
       </c>
       <c r="G31">
-        <v>34.26814654717644</v>
+        <v>10.64000034332275</v>
       </c>
       <c r="H31">
-        <v>171080665</v>
+        <v>250599325</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>3538427075</v>
@@ -4129,22 +4042,22 @@
         <v>45657</v>
       </c>
       <c r="D32">
-        <v>12.96000003814697</v>
+        <v>8.069999694824219</v>
       </c>
       <c r="E32">
-        <v>14.22000026702881</v>
+        <v>9.170000076293944</v>
       </c>
       <c r="F32">
-        <v>15.34500026702881</v>
+        <v>9.689999580383301</v>
       </c>
       <c r="G32">
-        <v>12.61999988555908</v>
+        <v>7.71999979019165</v>
       </c>
       <c r="H32">
-        <v>453568899</v>
+        <v>250599325</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>2504552734</v>
@@ -4239,22 +4152,22 @@
         <v>45747</v>
       </c>
       <c r="D33">
-        <v>187.8600006103516</v>
+        <v>10.47999954223633</v>
       </c>
       <c r="E33">
-        <v>184.4199981689453</v>
+        <v>14.0600004196167</v>
       </c>
       <c r="F33">
-        <v>198.3399963378907</v>
+        <v>14.47999954223633</v>
       </c>
       <c r="G33">
-        <v>161.3800048828125</v>
+        <v>9.829999923706056</v>
       </c>
       <c r="H33">
-        <v>10664912097</v>
+        <v>250599325</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>2997411817</v>
@@ -4367,22 +4280,22 @@
         <v>45838</v>
       </c>
       <c r="D34">
-        <v>105.0804770925983</v>
+        <v>16.03000068664551</v>
       </c>
       <c r="E34">
-        <v>103.1780242919922</v>
+        <v>12.77999973297119</v>
       </c>
       <c r="F34">
-        <v>109.3114367486601</v>
+        <v>16.68000030517578</v>
       </c>
       <c r="G34">
-        <v>101.4440230697358</v>
+        <v>12.72000026702881</v>
       </c>
       <c r="H34">
-        <v>199618386</v>
+        <v>250599325</v>
       </c>
       <c r="I34" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>4587641751</v>
